--- a/docs/lit_review/literature_table.xlsx
+++ b/docs/lit_review/literature_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="27555" windowHeight="12450"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="23280" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Literature" sheetId="1" r:id="rId1"/>
@@ -3824,7 +3824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3956,6 +3956,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4258,7 +4266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4301,8 +4309,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4315,8 +4324,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4350,6 +4360,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -4690,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F115" workbookViewId="0">
-      <selection activeCell="R181" sqref="R181"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13320,7 +13331,7 @@
         <v>1267</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>253</v>
@@ -15765,7 +15776,7 @@
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="3" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>703</v>
@@ -15779,7 +15790,7 @@
       <c r="U169" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="V169" s="9" t="s">
+      <c r="V169" s="10" t="s">
         <v>706</v>
       </c>
       <c r="W169" s="9" t="s">
@@ -16106,7 +16117,10 @@
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="V169" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>